--- a/paper/results/fast_results_app_replication.xlsx
+++ b/paper/results/fast_results_app_replication.xlsx
@@ -15,6 +15,9 @@
     <sheet name="results_app" sheetId="1" r:id="rId1"/>
     <sheet name="rdfrac_0_and_100" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -608,7 +611,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -621,14 +624,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" b="1"/>
               <a:t>Crash</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
               <a:t> Consistent 3-way Replicated Hash Table</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -646,7 +649,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -675,7 +678,7 @@
             <c:v>100% writes</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -779,7 +782,7 @@
             <c:v>100% reads</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -788,7 +791,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="diamond"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -872,11 +875,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="60870152"/>
-        <c:axId val="60870936"/>
+        <c:axId val="530812888"/>
+        <c:axId val="530817200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60870152"/>
+        <c:axId val="530812888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -903,7 +906,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -916,7 +919,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
                   <a:t>Throughput (in millions of ops/sec)</a:t>
                 </a:r>
               </a:p>
@@ -936,7 +939,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -974,7 +977,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -989,12 +992,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60870936"/>
+        <c:crossAx val="530817200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60870936"/>
+        <c:axId val="530817200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1021,7 +1024,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1034,7 +1037,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
                   <a:t>Latency at client  (in us)</a:t>
                 </a:r>
               </a:p>
@@ -1054,7 +1057,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1092,7 +1095,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1107,7 +1110,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60870152"/>
+        <c:crossAx val="530812888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1135,7 +1138,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1188,7 +1191,800 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Replication</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> (payload = 0 bytes)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Replicas=1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[1]fast results (pure replication)'!$G$2:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5.8363499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91727199999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5352600000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7907500000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.62094</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.6547999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.2554999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.9345599999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.3007600000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.4007100000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.3129100000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]fast results (pure replication)'!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10.016299999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.922700000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.266100000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.8231</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.9328</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.3674</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.468800000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25.885300000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.876799999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36.598100000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40.348100000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Replicas=2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[1]fast results (pure replication)'!$F$13:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4.8964399999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88160899999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.95964</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.41147</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2141400000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1539599999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.2416600000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.1467200000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5408200000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.67354</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.0551399999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]fast results (pure replication)'!$E$13:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>20.423999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.686699999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.5168</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.313500000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.595599999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34.924900000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.157299999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.725700000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39.784500000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45.746000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>49.6599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Replicas=3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[1]fast results (pure replication)'!$F$24:$F$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4.0470000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86116999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.88463</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3191999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1810200000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.2243599999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.48712</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.4966299999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0633600000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.4402400000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.5529999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]fast results (pure replication)'!$E$24:$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>24.714500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.225300000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.5322</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.877400000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34.4559</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.536200000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.830500000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42.631300000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47.044199999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52.962800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="530793288"/>
+        <c:axId val="530801520"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="530793288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
+                  <a:t>Throughput (Mops/sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="530801520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="530801520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
+                  <a:t>Latency at client (us)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="530793288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0" l="0" r="0" t="0" header="0" footer="0"/>
+    <c:pageSetup orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1744,20 +2540,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>383540</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1776,7 +3088,331 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>193675</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="fast results (pure replication)"/>
+      <sheetName val="results_raw"/>
+      <sheetName val="results_raw (2)"/>
+      <sheetName val="rep_perf_vary_replicas_0B"/>
+      <sheetName val="rep_perf_vary_replicas_190B"/>
+      <sheetName val="rep_perf_vary_replicas_512B"/>
+      <sheetName val="rep_perf_vary_ports"/>
+      <sheetName val="rep_perf_vary_ports_payload"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="E2">
+            <v>10.016299999999999</v>
+          </cell>
+          <cell r="G2">
+            <v>5.8363499999999999E-2</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="E3">
+            <v>10.922700000000001</v>
+          </cell>
+          <cell r="G3">
+            <v>0.91727199999999998</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="E4">
+            <v>16.266100000000002</v>
+          </cell>
+          <cell r="G4">
+            <v>2.5352600000000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5">
+            <v>19.8231</v>
+          </cell>
+          <cell r="G5">
+            <v>4.7907500000000001</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="E6">
+            <v>20.9328</v>
+          </cell>
+          <cell r="G6">
+            <v>6.62094</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="E7">
+            <v>22.3674</v>
+          </cell>
+          <cell r="G7">
+            <v>7.6547999999999998</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="E8">
+            <v>23.468800000000002</v>
+          </cell>
+          <cell r="G8">
+            <v>8.2554999999999996</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="E9">
+            <v>25.885300000000001</v>
+          </cell>
+          <cell r="G9">
+            <v>8.9345599999999994</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="E10">
+            <v>30.876799999999999</v>
+          </cell>
+          <cell r="G10">
+            <v>9.3007600000000004</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="E11">
+            <v>36.598100000000002</v>
+          </cell>
+          <cell r="G11">
+            <v>9.4007100000000001</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="E12">
+            <v>40.348100000000002</v>
+          </cell>
+          <cell r="G12">
+            <v>9.3129100000000005</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="E13">
+            <v>20.423999999999999</v>
+          </cell>
+          <cell r="F13">
+            <v>4.8964399999999998E-2</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="E14">
+            <v>22.686699999999998</v>
+          </cell>
+          <cell r="F14">
+            <v>0.88160899999999998</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="E15">
+            <v>25.5168</v>
+          </cell>
+          <cell r="F15">
+            <v>1.95964</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="E16">
+            <v>29.313500000000001</v>
+          </cell>
+          <cell r="F16">
+            <v>3.41147</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="E17">
+            <v>35.595599999999997</v>
+          </cell>
+          <cell r="F17">
+            <v>4.2141400000000004</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="E18">
+            <v>34.924900000000001</v>
+          </cell>
+          <cell r="F18">
+            <v>5.1539599999999997</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="E19">
+            <v>38.157299999999999</v>
+          </cell>
+          <cell r="F19">
+            <v>5.2416600000000004</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="E20">
+            <v>40.725700000000003</v>
+          </cell>
+          <cell r="F20">
+            <v>6.1467200000000002</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="E21">
+            <v>39.784500000000001</v>
+          </cell>
+          <cell r="F21">
+            <v>7.5408200000000001</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="E22">
+            <v>45.746000000000002</v>
+          </cell>
+          <cell r="F22">
+            <v>7.67354</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="E23">
+            <v>49.6599</v>
+          </cell>
+          <cell r="F23">
+            <v>8.0551399999999997</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="E24">
+            <v>24.714500000000001</v>
+          </cell>
+          <cell r="F24">
+            <v>4.0470000000000002E-3</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="E25">
+            <v>23.225300000000001</v>
+          </cell>
+          <cell r="F25">
+            <v>0.86116999999999999</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="E26">
+            <v>26.5322</v>
+          </cell>
+          <cell r="F26">
+            <v>1.88463</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="E27">
+            <v>30.128</v>
+          </cell>
+          <cell r="F27">
+            <v>3.3191999999999999</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="E28">
+            <v>35.877400000000002</v>
+          </cell>
+          <cell r="F28">
+            <v>4.1810200000000002</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="E29">
+            <v>34.4559</v>
+          </cell>
+          <cell r="F29">
+            <v>5.2243599999999999</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="E30">
+            <v>36.536200000000001</v>
+          </cell>
+          <cell r="F30">
+            <v>5.48712</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="E31">
+            <v>38.830500000000001</v>
+          </cell>
+          <cell r="F31">
+            <v>6.4966299999999997</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="E32">
+            <v>42.631300000000003</v>
+          </cell>
+          <cell r="F32">
+            <v>7.0633600000000003</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="E33">
+            <v>47.044199999999996</v>
+          </cell>
+          <cell r="F33">
+            <v>7.4402400000000002</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="E34">
+            <v>52.962800000000001</v>
+          </cell>
+          <cell r="F34">
+            <v>7.5529999999999999</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2941,8 +4577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/paper/results/fast_results_app_replication.xlsx
+++ b/paper/results/fast_results_app_replication.xlsx
@@ -1185,8 +1185,8 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0" l="0" r="0" t="0" header="0" footer="0"/>
+    <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -3403,13 +3403,13 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>

--- a/paper/results/fast_results_app_replication.xlsx
+++ b/paper/results/fast_results_app_replication.xlsx
@@ -875,11 +875,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="530812888"/>
-        <c:axId val="530817200"/>
+        <c:axId val="72058584"/>
+        <c:axId val="72058976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="530812888"/>
+        <c:axId val="72058584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -992,12 +992,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="530817200"/>
+        <c:crossAx val="72058976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="530817200"/>
+        <c:axId val="72058976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1038,7 +1038,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
-                  <a:t>Latency at client  (in us)</a:t>
+                  <a:t>Latency at client  (us)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1110,7 +1110,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="530812888"/>
+        <c:crossAx val="72058584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1138,7 +1138,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1628,11 +1628,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="530793288"/>
-        <c:axId val="530801520"/>
+        <c:axId val="72059760"/>
+        <c:axId val="148383928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="530793288"/>
+        <c:axId val="72059760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1745,12 +1745,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="530801520"/>
+        <c:crossAx val="148383928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="530801520"/>
+        <c:axId val="148383928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1863,7 +1863,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="530793288"/>
+        <c:crossAx val="72059760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
